--- a/01_rawdata/On-track and off-track countries.xlsx
+++ b/01_rawdata/On-track and off-track countries.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicef.sharepoint.com/teams/DAPM-Health-HIV/Shared Documents/MNCAH/02 Consultancies/Database support/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/skundu1_worldbank_org/Documents/Documents/GitHub/unicef-answers/01_rawdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1105F48-9661-BD47-8EFB-3875E80137D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{B1105F48-9661-BD47-8EFB-3875E80137D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91B9C359-1328-4726-B90B-4C6C35196789}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16260" windowHeight="13840" xr2:uid="{EF40F8C9-9F60-F549-9155-AB3CDA7FD3DB}"/>
+    <workbookView xWindow="2370" yWindow="2700" windowWidth="38700" windowHeight="15345" xr2:uid="{EF40F8C9-9F60-F549-9155-AB3CDA7FD3DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$201</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1615,18 +1618,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336090EF-F9F3-FF4A-9A7E-11AA511CAE95}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1637,7 +1641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1648,7 +1652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1659,7 +1663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -1670,7 +1674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -1681,7 +1685,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -1692,7 +1696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -1703,7 +1707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -1714,7 +1718,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -1725,7 +1729,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -1736,7 +1740,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>131</v>
       </c>
@@ -1747,7 +1751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>132</v>
       </c>
@@ -1758,7 +1762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>133</v>
       </c>
@@ -1769,7 +1773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1780,7 +1784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -1791,7 +1795,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1802,7 +1806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1813,7 +1817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -1824,7 +1828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -1835,7 +1839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -1846,7 +1850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -1857,7 +1861,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>139</v>
       </c>
@@ -1868,7 +1872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>140</v>
       </c>
@@ -1879,7 +1883,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -1890,7 +1894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>142</v>
       </c>
@@ -1901,7 +1905,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -1912,7 +1916,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>144</v>
       </c>
@@ -1923,7 +1927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>145</v>
       </c>
@@ -1934,7 +1938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -1945,7 +1949,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1956,7 +1960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1967,7 +1971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>147</v>
       </c>
@@ -1978,7 +1982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -1989,7 +1993,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>149</v>
       </c>
@@ -2000,7 +2004,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>150</v>
       </c>
@@ -2011,7 +2015,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -2022,7 +2026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -2033,7 +2037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2044,7 +2048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -2055,7 +2059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -2066,7 +2070,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -2077,7 +2081,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -2088,7 +2092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>153</v>
       </c>
@@ -2099,7 +2103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>154</v>
       </c>
@@ -2110,7 +2114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>155</v>
       </c>
@@ -2121,7 +2125,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>156</v>
       </c>
@@ -2132,7 +2136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>157</v>
       </c>
@@ -2143,7 +2147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>158</v>
       </c>
@@ -2154,7 +2158,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -2165,7 +2169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -2176,7 +2180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>159</v>
       </c>
@@ -2187,7 +2191,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -2198,7 +2202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>160</v>
       </c>
@@ -2209,7 +2213,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>161</v>
       </c>
@@ -2220,7 +2224,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>162</v>
       </c>
@@ -2231,7 +2235,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -2242,7 +2246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -2253,7 +2257,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>164</v>
       </c>
@@ -2264,7 +2268,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>37</v>
       </c>
@@ -2275,7 +2279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>165</v>
       </c>
@@ -2286,7 +2290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -2297,7 +2301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>166</v>
       </c>
@@ -2308,7 +2312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>167</v>
       </c>
@@ -2319,7 +2323,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -2330,7 +2334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -2341,7 +2345,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>169</v>
       </c>
@@ -2352,7 +2356,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>44</v>
       </c>
@@ -2363,7 +2367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>46</v>
       </c>
@@ -2374,7 +2378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -2385,7 +2389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -2396,7 +2400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>52</v>
       </c>
@@ -2407,7 +2411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>170</v>
       </c>
@@ -2418,7 +2422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>171</v>
       </c>
@@ -2429,7 +2433,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>172</v>
       </c>
@@ -2440,7 +2444,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>173</v>
       </c>
@@ -2451,7 +2455,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>174</v>
       </c>
@@ -2462,7 +2466,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>175</v>
       </c>
@@ -2473,7 +2477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>54</v>
       </c>
@@ -2484,7 +2488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>176</v>
       </c>
@@ -2495,7 +2499,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>177</v>
       </c>
@@ -2506,7 +2510,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>178</v>
       </c>
@@ -2517,7 +2521,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>179</v>
       </c>
@@ -2528,7 +2532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>180</v>
       </c>
@@ -2539,7 +2543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>181</v>
       </c>
@@ -2550,7 +2554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>182</v>
       </c>
@@ -2561,7 +2565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>183</v>
       </c>
@@ -2572,7 +2576,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>184</v>
       </c>
@@ -2583,7 +2587,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>185</v>
       </c>
@@ -2594,7 +2598,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>186</v>
       </c>
@@ -2605,7 +2609,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -2616,7 +2620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>188</v>
       </c>
@@ -2627,7 +2631,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>56</v>
       </c>
@@ -2638,7 +2642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>189</v>
       </c>
@@ -2649,7 +2653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>190</v>
       </c>
@@ -2660,7 +2664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>58</v>
       </c>
@@ -2671,7 +2675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -2682,7 +2686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>192</v>
       </c>
@@ -2693,7 +2697,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -2704,7 +2708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>60</v>
       </c>
@@ -2715,7 +2719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>194</v>
       </c>
@@ -2726,7 +2730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>62</v>
       </c>
@@ -2737,7 +2741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>195</v>
       </c>
@@ -2748,7 +2752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>196</v>
       </c>
@@ -2759,7 +2763,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>197</v>
       </c>
@@ -2770,7 +2774,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>64</v>
       </c>
@@ -2781,7 +2785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>198</v>
       </c>
@@ -2792,7 +2796,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>199</v>
       </c>
@@ -2803,7 +2807,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>200</v>
       </c>
@@ -2814,7 +2818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>201</v>
       </c>
@@ -2825,7 +2829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>202</v>
       </c>
@@ -2836,7 +2840,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>203</v>
       </c>
@@ -2847,7 +2851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>66</v>
       </c>
@@ -2858,7 +2862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>204</v>
       </c>
@@ -2869,7 +2873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>205</v>
       </c>
@@ -2880,7 +2884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>206</v>
       </c>
@@ -2891,7 +2895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>207</v>
       </c>
@@ -2902,7 +2906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>68</v>
       </c>
@@ -2913,7 +2917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>208</v>
       </c>
@@ -2924,7 +2928,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>70</v>
       </c>
@@ -2935,7 +2939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>209</v>
       </c>
@@ -2946,7 +2950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>210</v>
       </c>
@@ -2957,7 +2961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>72</v>
       </c>
@@ -2968,7 +2972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>74</v>
       </c>
@@ -2979,7 +2983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>211</v>
       </c>
@@ -2990,7 +2994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>212</v>
       </c>
@@ -3001,7 +3005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>76</v>
       </c>
@@ -3012,7 +3016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>213</v>
       </c>
@@ -3023,7 +3027,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>78</v>
       </c>
@@ -3034,7 +3038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>80</v>
       </c>
@@ -3045,7 +3049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>82</v>
       </c>
@@ -3056,7 +3060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>214</v>
       </c>
@@ -3067,7 +3071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>215</v>
       </c>
@@ -3078,7 +3082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>216</v>
       </c>
@@ -3089,7 +3093,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>217</v>
       </c>
@@ -3100,7 +3104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>218</v>
       </c>
@@ -3111,7 +3115,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>219</v>
       </c>
@@ -3122,7 +3126,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>220</v>
       </c>
@@ -3133,7 +3137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>221</v>
       </c>
@@ -3144,7 +3148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>84</v>
       </c>
@@ -3155,7 +3159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>222</v>
       </c>
@@ -3166,7 +3170,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>223</v>
       </c>
@@ -3177,7 +3181,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>86</v>
       </c>
@@ -3188,7 +3192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>224</v>
       </c>
@@ -3199,7 +3203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>88</v>
       </c>
@@ -3210,7 +3214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>225</v>
       </c>
@@ -3221,7 +3225,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>226</v>
       </c>
@@ -3232,7 +3236,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>227</v>
       </c>
@@ -3243,7 +3247,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>228</v>
       </c>
@@ -3254,7 +3258,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>229</v>
       </c>
@@ -3265,7 +3269,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>230</v>
       </c>
@@ -3276,7 +3280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>231</v>
       </c>
@@ -3287,7 +3291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>232</v>
       </c>
@@ -3298,7 +3302,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>233</v>
       </c>
@@ -3309,7 +3313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>90</v>
       </c>
@@ -3320,7 +3324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>234</v>
       </c>
@@ -3331,7 +3335,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>92</v>
       </c>
@@ -3342,7 +3346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>94</v>
       </c>
@@ -3353,7 +3357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>235</v>
       </c>
@@ -3364,7 +3368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>236</v>
       </c>
@@ -3375,7 +3379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>96</v>
       </c>
@@ -3386,7 +3390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>237</v>
       </c>
@@ -3397,7 +3401,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>238</v>
       </c>
@@ -3408,7 +3412,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>98</v>
       </c>
@@ -3419,7 +3423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>239</v>
       </c>
@@ -3430,7 +3434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>100</v>
       </c>
@@ -3441,7 +3445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>240</v>
       </c>
@@ -3452,7 +3456,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>241</v>
       </c>
@@ -3463,7 +3467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>242</v>
       </c>
@@ -3474,7 +3478,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>243</v>
       </c>
@@ -3485,7 +3489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>244</v>
       </c>
@@ -3496,7 +3500,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>102</v>
       </c>
@@ -3507,7 +3511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>245</v>
       </c>
@@ -3518,7 +3522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>246</v>
       </c>
@@ -3529,7 +3533,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>247</v>
       </c>
@@ -3540,7 +3544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>104</v>
       </c>
@@ -3551,7 +3555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>106</v>
       </c>
@@ -3562,7 +3566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>248</v>
       </c>
@@ -3573,7 +3577,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>249</v>
       </c>
@@ -3584,7 +3588,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>108</v>
       </c>
@@ -3595,7 +3599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>110</v>
       </c>
@@ -3606,7 +3610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>250</v>
       </c>
@@ -3617,7 +3621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>251</v>
       </c>
@@ -3628,7 +3632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>252</v>
       </c>
@@ -3639,7 +3643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>253</v>
       </c>
@@ -3650,7 +3654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>254</v>
       </c>
@@ -3661,7 +3665,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>112</v>
       </c>
@@ -3672,7 +3676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>114</v>
       </c>
@@ -3683,7 +3687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>255</v>
       </c>
@@ -3694,7 +3698,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>256</v>
       </c>
@@ -3705,7 +3709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>257</v>
       </c>
@@ -3716,7 +3720,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>258</v>
       </c>
@@ -3727,7 +3731,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>259</v>
       </c>
@@ -3738,7 +3742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>260</v>
       </c>
@@ -3749,7 +3753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>261</v>
       </c>
@@ -3760,7 +3764,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>262</v>
       </c>
@@ -3771,7 +3775,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>263</v>
       </c>
@@ -3782,7 +3786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>264</v>
       </c>
@@ -3793,7 +3797,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>116</v>
       </c>
@@ -3804,7 +3808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>118</v>
       </c>
@@ -3815,7 +3819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>120</v>
       </c>
@@ -3826,7 +3830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>122</v>
       </c>
@@ -3838,11 +3842,68 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C201" xr:uid="{336090EF-F9F3-FF4A-9A7E-11AA511CAE95}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Acceleration Needed"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001C98D844A22B794A81DDBFBB9EF63804" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee642650a4ae893334ec735edbafc487">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9e17fbd9-fb4c-4d20-9ec4-18aa77a91b0d" xmlns:ns3="ae6450c1-f776-41e3-80e5-b5e3b2145961" xmlns:ns4="ca283e0b-db31-4043-a2ef-b80661bf084a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8173959d57a8e11895a1e0c137660a5a" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="9e17fbd9-fb4c-4d20-9ec4-18aa77a91b0d"/>
@@ -4127,66 +4188,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae6450c1-f776-41e3-80e5-b5e3b2145961">
@@ -4202,18 +4204,59 @@
 </p:properties>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{786B61F0-18EE-49E3-A609-B917D9F64B32}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CC675AD-F9CC-4AD8-8F09-91A776D271DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CC675AD-F9CC-4AD8-8F09-91A776D271DE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{786B61F0-18EE-49E3-A609-B917D9F64B32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9e17fbd9-fb4c-4d20-9ec4-18aa77a91b0d"/>
+    <ds:schemaRef ds:uri="ae6450c1-f776-41e3-80e5-b5e3b2145961"/>
+    <ds:schemaRef ds:uri="ca283e0b-db31-4043-a2ef-b80661bf084a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7FCCF40-C0F2-414F-87B8-CD6EA49FE9AD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EBFB5E1-DFAA-4C6F-A84F-E9E41C1F2625}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ae6450c1-f776-41e3-80e5-b5e3b2145961"/>
+    <ds:schemaRef ds:uri="ca283e0b-db31-4043-a2ef-b80661bf084a"/>
+    <ds:schemaRef ds:uri="9e17fbd9-fb4c-4d20-9ec4-18aa77a91b0d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EBFB5E1-DFAA-4C6F-A84F-E9E41C1F2625}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7FCCF40-C0F2-414F-87B8-CD6EA49FE9AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>